--- a/bbb_16/jlcpcb/assembly/CPL_BBB_16v2_SMD_PCB.xlsx
+++ b/bbb_16/jlcpcb/assembly/CPL_BBB_16v2_SMD_PCB.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_16/jlcpcb/assembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C658E78F-85AA-4644-8F8C-B0F4A7B415F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C39A7851-74E0-F84C-A4A1-2ED7F6DFB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="11240" yWindow="3560" windowWidth="29360" windowHeight="22100"/>
   </bookViews>
   <sheets>
-    <sheet name="PickAndPlace_BBB_16v2_SMD_PCB" sheetId="1" r:id="rId1"/>
+    <sheet name="PickAndPlace_BBB 16v2 SMD PCB_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="174">
   <si>
     <t>Designator</t>
   </si>
@@ -190,22 +190,7 @@
     <t>SZYY0603G</t>
   </si>
   <si>
-    <t>LED3</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD</t>
-  </si>
-  <si>
-    <t>152.91mm</t>
-  </si>
-  <si>
-    <t>-102.11mm</t>
-  </si>
-  <si>
-    <t>153.76mm</t>
-  </si>
-  <si>
-    <t>SZYY0603R</t>
+    <t>-29.46mm</t>
   </si>
   <si>
     <t>Q1</t>
@@ -391,10 +376,13 @@
     <t>R21</t>
   </si>
   <si>
-    <t>157.98mm</t>
-  </si>
-  <si>
-    <t>158.73mm</t>
+    <t>158.76mm</t>
+  </si>
+  <si>
+    <t>-101.6mm</t>
+  </si>
+  <si>
+    <t>159.51mm</t>
   </si>
   <si>
     <t>R23</t>
@@ -464,9 +452,6 @@
   </si>
   <si>
     <t>R30</t>
-  </si>
-  <si>
-    <t>-29.46mm</t>
   </si>
   <si>
     <t>R31</t>
@@ -1397,11 +1382,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1755,28 +1745,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -1785,42 +1775,42 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>68</v>
+        <v>270</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1828,25 +1818,25 @@
         <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1860,28 +1850,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
       <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
@@ -1895,37 +1885,37 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>270</v>
-      </c>
-      <c r="K15">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1933,25 +1923,25 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1960,68 +1950,68 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>82</v>
+        <v>270</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -2035,28 +2025,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -2070,28 +2060,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -2105,28 +2095,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -2140,60 +2130,60 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="K22">
-        <v>33</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
       <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
         <v>97</v>
@@ -2202,36 +2192,36 @@
         <v>16</v>
       </c>
       <c r="J23">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K23">
-        <v>680</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -2245,28 +2235,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
         <v>101</v>
       </c>
-      <c r="G25" t="s">
-        <v>104</v>
-      </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -2280,28 +2270,28 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
@@ -2315,28 +2305,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -2350,28 +2340,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -2385,28 +2375,28 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -2420,28 +2410,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -2455,37 +2445,37 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31">
-        <v>270</v>
-      </c>
-      <c r="K31">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2493,7 +2483,7 @@
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
@@ -2517,36 +2507,36 @@
         <v>16</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>121</v>
+        <v>180</v>
+      </c>
+      <c r="K32">
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
       <c r="E33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" t="s">
         <v>123</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
       </c>
       <c r="G33" t="s">
         <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -2554,31 +2544,31 @@
       <c r="J33">
         <v>180</v>
       </c>
-      <c r="K33">
-        <v>680</v>
+      <c r="K33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
         <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
         <v>127</v>
@@ -2590,33 +2580,33 @@
         <v>180</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
@@ -2625,30 +2615,30 @@
         <v>180</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
         <v>133</v>
       </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
         <v>134</v>
@@ -2657,33 +2647,33 @@
         <v>16</v>
       </c>
       <c r="J36">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
         <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
         <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
         <v>138</v>
@@ -2692,45 +2682,45 @@
         <v>16</v>
       </c>
       <c r="J37">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
       </c>
       <c r="J38">
-        <v>90</v>
-      </c>
-      <c r="K38" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2738,25 +2728,25 @@
         <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -2770,80 +2760,80 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>680</v>
+        <v>180</v>
+      </c>
+      <c r="K40" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" t="s">
-        <v>128</v>
-      </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
       </c>
       <c r="J41">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
         <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>152</v>
@@ -2861,42 +2851,42 @@
         <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K42" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" t="s">
         <v>158</v>
       </c>
-      <c r="E43" t="s">
-        <v>157</v>
-      </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -2905,7 +2895,7 @@
         <v>180</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2913,104 +2903,69 @@
         <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
         <v>164</v>
       </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
       </c>
       <c r="J44">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>270</v>
+      </c>
+      <c r="K45" t="s">
         <v>168</v>
-      </c>
-      <c r="C45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" t="s">
-        <v>172</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45">
-        <v>90</v>
-      </c>
-      <c r="K45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46">
-        <v>270</v>
-      </c>
-      <c r="K46" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
